--- a/doc/数据库字段备注.xlsx
+++ b/doc/数据库字段备注.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Attendance_Data" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="197">
   <si>
     <t>id  integer PRIMARY KEY AUTOINCREMENT NOT NULL,</t>
   </si>
@@ -69,654 +69,661 @@
     <t>Shiftinformation  TEXT,</t>
   </si>
   <si>
+    <t>isAbsenteeism2  TEXT,</t>
+  </si>
+  <si>
+    <t>isAbsenteeism3  TEXT,</t>
+  </si>
+  <si>
+    <t>temperature  TEXT,</t>
+  </si>
+  <si>
+    <t>Duration  TEXT,</t>
+  </si>
+  <si>
+    <t>IsAcrossNight  TEXT</t>
+  </si>
+  <si>
+    <t>attribute  TEXT,</t>
+  </si>
+  <si>
+    <t>publishtime  TEXT,</t>
+  </si>
+  <si>
+    <t>isdefault  TEXT</t>
+  </si>
+  <si>
+    <t>sequnce  TEXT,</t>
+  </si>
+  <si>
+    <t>device_id  text,</t>
+  </si>
+  <si>
+    <t>addr_name  TEXT,</t>
+  </si>
+  <si>
+    <t>time  TEXT,</t>
+  </si>
+  <si>
+    <t>match_status  TEXT,</t>
+  </si>
+  <si>
+    <t>match_type  TEXT,</t>
+  </si>
+  <si>
+    <t>person_id  TEXT,</t>
+  </si>
+  <si>
+    <t>person_name  TEXT,</t>
+  </si>
+  <si>
+    <t>hatColor  TEXT,</t>
+  </si>
+  <si>
+    <t>wg_card_id  text,</t>
+  </si>
+  <si>
+    <t>match_failed_reson  TEXT,</t>
+  </si>
+  <si>
+    <t>exist_mask  TEXT,</t>
+  </si>
+  <si>
+    <t>body_temp  TEXT,</t>
+  </si>
+  <si>
+    <t>device_sn  TEXT,</t>
+  </si>
+  <si>
+    <t>idcard_number  TEXT,</t>
+  </si>
+  <si>
+    <t>idcard_name  TEXT,</t>
+  </si>
+  <si>
+    <t>closeup  TEXT,</t>
+  </si>
+  <si>
+    <t>QRcodestatus  TEXT,</t>
+  </si>
+  <si>
+    <t>QRcode  TEXT,</t>
+  </si>
+  <si>
+    <t>trip_infor  TEXT</t>
+  </si>
+  <si>
+    <t>imge  TEXT,</t>
+  </si>
+  <si>
+    <t>personid  TEXT,</t>
+  </si>
+  <si>
+    <t>role  TEXT,</t>
+  </si>
+  <si>
+    <t>term_start  TEXT,</t>
+  </si>
+  <si>
+    <t>term  TEXT,</t>
+  </si>
+  <si>
+    <t>wg_card_id  TEXT,</t>
+  </si>
+  <si>
+    <t>long_card_id  TEXT,</t>
+  </si>
+  <si>
+    <t>model  TEXT</t>
+  </si>
+  <si>
+    <t>phone  TEXT,</t>
+  </si>
+  <si>
+    <t>no  INTEGER NOT NULL DEFAULT '',</t>
+  </si>
+  <si>
+    <t>address  TEXT,</t>
+  </si>
+  <si>
+    <t>explain  TEXT,</t>
+  </si>
+  <si>
+    <t>publish_time  TEXT,</t>
+  </si>
+  <si>
+    <t>ParentId  INTEGER</t>
+  </si>
+  <si>
+    <t>userid  INTEGER NOT NULL DEFAULT '',</t>
+  </si>
+  <si>
+    <t>deviceid  INTEGER NOT NULL DEFAULT '',</t>
+  </si>
+  <si>
+    <t>status  TEXT,</t>
+  </si>
+  <si>
+    <t>type  TEXT,</t>
+  </si>
+  <si>
+    <t>date  TEXT,</t>
+  </si>
+  <si>
+    <t>code  TEXT</t>
+  </si>
+  <si>
+    <t>name  text,</t>
+  </si>
+  <si>
+    <t>gotowork1  TEXT,</t>
+  </si>
+  <si>
+    <t>gotowork2  TEXT,</t>
+  </si>
+  <si>
+    <t>gooffwork3  TEXT,</t>
+  </si>
+  <si>
+    <t>rest_time  TEXT,</t>
+  </si>
+  <si>
+    <t>EffectiveTime  TEXT,</t>
+  </si>
+  <si>
+    <t>EffectiveTime2  TEXT,</t>
+  </si>
+  <si>
+    <t>EffectiveTime3  TEXT,</t>
+  </si>
+  <si>
+    <t>Email  text,</t>
+  </si>
+  <si>
+    <t>status  text,</t>
+  </si>
+  <si>
+    <t>department_id  INTEGER NOT NULL DEFAULT '',</t>
+  </si>
+  <si>
+    <t>picture  text,</t>
+  </si>
+  <si>
+    <t>publish_time  TIMESTAMP NOT NULL DEFAULT '',</t>
+  </si>
+  <si>
+    <t>Employetype_id  integer,</t>
+  </si>
+  <si>
+    <t>AttendanceGroup_id  INTEGER,</t>
+  </si>
+  <si>
+    <t>IDcardNo  text,</t>
+  </si>
+  <si>
+    <t>line_userid  text,</t>
+  </si>
+  <si>
+    <t>line_code  TEXT,</t>
+  </si>
+  <si>
+    <t>line_type  TEXT,</t>
+  </si>
+  <si>
+    <t>line_codemail  TEXT,</t>
+  </si>
+  <si>
+    <t>islineAdmin  TEXT,</t>
+  </si>
+  <si>
+    <t>idcardtype  TEXT,</t>
+  </si>
+  <si>
+    <t>source  TEXT</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否缺省</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员编号</t>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迟到分钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体温</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跨夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班组名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>排班详情</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全帽颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韦根卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对失败原因</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否戴口罩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特写图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康码状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓拍记录序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓拍时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比对标志</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>健康码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行程信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备人员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片路径</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有效期截止时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡号（32位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡号（64位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备序列号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备型号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>父部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误代码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备下发表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>休息时段</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段1打卡有效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段2打卡有效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时段3打卡有效时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跨夜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电子邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>图片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤组id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>face_idcard  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门禁卡类型（32位，64位）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人员来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从设备同步注册而来时，为设备sn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>班次信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Punchinformation  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段1下班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段1上班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段2上班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段2下班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段3下班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段3上班打卡时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isAbsenteeism  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段1是否旷工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间段2是否旷工</t>
+  </si>
+  <si>
+    <t>时间段3是否旷工</t>
+  </si>
+  <si>
+    <t>日本使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Todaylate  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考勤组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抓拍数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remarks  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stutas  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code  integer,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间戳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>late  TEXT,</t>
-  </si>
-  <si>
-    <t>isAbsenteeism2  TEXT,</t>
-  </si>
-  <si>
-    <t>isAbsenteeism3  TEXT,</t>
-  </si>
-  <si>
-    <t>temperature  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Duration  TEXT,</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作时长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>workOvertime  TEXT,</t>
-  </si>
-  <si>
-    <t>IsAcrossNight  TEXT</t>
-  </si>
-  <si>
-    <t>attribute  TEXT,</t>
-  </si>
-  <si>
-    <t>publishtime  TEXT,</t>
-  </si>
-  <si>
-    <t>isdefault  TEXT</t>
-  </si>
-  <si>
-    <t>sequnce  TEXT,</t>
-  </si>
-  <si>
-    <t>device_id  text,</t>
-  </si>
-  <si>
-    <t>addr_name  TEXT,</t>
-  </si>
-  <si>
-    <t>time  TEXT,</t>
-  </si>
-  <si>
-    <t>match_status  TEXT,</t>
-  </si>
-  <si>
-    <t>match_type  TEXT,</t>
-  </si>
-  <si>
-    <t>person_id  TEXT,</t>
-  </si>
-  <si>
-    <t>person_name  TEXT,</t>
-  </si>
-  <si>
-    <t>hatColor  TEXT,</t>
-  </si>
-  <si>
-    <t>wg_card_id  text,</t>
-  </si>
-  <si>
-    <t>match_failed_reson  TEXT,</t>
-  </si>
-  <si>
-    <t>exist_mask  TEXT,</t>
-  </si>
-  <si>
-    <t>body_temp  TEXT,</t>
-  </si>
-  <si>
-    <t>device_sn  TEXT,</t>
-  </si>
-  <si>
-    <t>idcard_number  TEXT,</t>
-  </si>
-  <si>
-    <t>idcard_name  TEXT,</t>
-  </si>
-  <si>
-    <t>closeup  TEXT,</t>
-  </si>
-  <si>
-    <t>QRcodestatus  TEXT,</t>
-  </si>
-  <si>
-    <t>QRcode  TEXT,</t>
-  </si>
-  <si>
-    <t>trip_infor  TEXT</t>
-  </si>
-  <si>
-    <t>imge  TEXT,</t>
-  </si>
-  <si>
-    <t>personid  TEXT,</t>
-  </si>
-  <si>
-    <t>role  TEXT,</t>
-  </si>
-  <si>
-    <t>term_start  TEXT,</t>
-  </si>
-  <si>
-    <t>term  TEXT,</t>
-  </si>
-  <si>
-    <t>wg_card_id  TEXT,</t>
-  </si>
-  <si>
-    <t>long_card_id  TEXT,</t>
-  </si>
-  <si>
-    <t>model  TEXT</t>
-  </si>
-  <si>
-    <t>phone  TEXT,</t>
-  </si>
-  <si>
-    <t>no  INTEGER NOT NULL DEFAULT '',</t>
-  </si>
-  <si>
-    <t>address  TEXT,</t>
-  </si>
-  <si>
-    <t>explain  TEXT,</t>
-  </si>
-  <si>
-    <t>code  integer,</t>
-  </si>
-  <si>
-    <t>publish_time  TEXT,</t>
-  </si>
-  <si>
-    <t>ParentId  INTEGER</t>
-  </si>
-  <si>
-    <t>userid  INTEGER NOT NULL DEFAULT '',</t>
-  </si>
-  <si>
-    <t>deviceid  INTEGER NOT NULL DEFAULT '',</t>
-  </si>
-  <si>
-    <t>status  TEXT,</t>
-  </si>
-  <si>
-    <t>type  TEXT,</t>
-  </si>
-  <si>
-    <t>date  TEXT,</t>
-  </si>
-  <si>
-    <t>code  TEXT</t>
-  </si>
-  <si>
-    <t>name  text,</t>
-  </si>
-  <si>
-    <t>gotowork1  TEXT,</t>
-  </si>
-  <si>
-    <t>gotowork2  TEXT,</t>
-  </si>
-  <si>
-    <t>gooffwork3  TEXT,</t>
-  </si>
-  <si>
-    <t>rest_time  TEXT,</t>
-  </si>
-  <si>
-    <t>EffectiveTime  TEXT,</t>
-  </si>
-  <si>
-    <t>EffectiveTime2  TEXT,</t>
-  </si>
-  <si>
-    <t>EffectiveTime3  TEXT,</t>
-  </si>
-  <si>
-    <t>Email  text,</t>
-  </si>
-  <si>
-    <t>status  text,</t>
-  </si>
-  <si>
-    <t>department_id  INTEGER NOT NULL DEFAULT '',</t>
-  </si>
-  <si>
-    <t>picture  text,</t>
-  </si>
-  <si>
-    <t>publish_time  TIMESTAMP NOT NULL DEFAULT '',</t>
-  </si>
-  <si>
-    <t>Employetype_id  integer,</t>
-  </si>
-  <si>
-    <t>AttendanceGroup_id  INTEGER,</t>
-  </si>
-  <si>
-    <t>IDcardNo  text,</t>
-  </si>
-  <si>
-    <t>line_userid  text,</t>
-  </si>
-  <si>
-    <t>line_code  TEXT,</t>
-  </si>
-  <si>
-    <t>line_type  TEXT,</t>
-  </si>
-  <si>
-    <t>line_codemail  TEXT,</t>
-  </si>
-  <si>
-    <t>islineAdmin  TEXT,</t>
-  </si>
-  <si>
-    <t>idcardtype  TEXT,</t>
-  </si>
-  <si>
-    <t>source  TEXT</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否缺省</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员编号</t>
-  </si>
-  <si>
-    <t>部门</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟到分钟</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>早退</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体温</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加班</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否跨夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班组名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排班详情</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比对类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>安全帽颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>韦根卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比对失败原因</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否戴口罩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特写图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康码状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓拍记录序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓拍时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>比对标志</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>健康码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>行程信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备人员表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片路径</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>有效期截止时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁卡号（32位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁卡号（64位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备序列号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备型号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>父部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>错误代码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备下发表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时长</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>休息时段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段1打卡有效时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班次表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段2打卡有效时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时段3打卡有效时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否跨夜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电子邮件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电话号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部门id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>图片</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤组id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证号码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>face_idcard  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁卡号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>门禁卡类型（32位，64位）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人员来源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>从设备同步注册而来时，为设备sn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>班次信息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Punchinformation  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段1下班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段1上班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段2上班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段2下班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段3下班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段3上班打卡时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isAbsenteeism  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段1是否旷工</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间段2是否旷工</t>
-  </si>
-  <si>
-    <t>时间段3是否旷工</t>
-  </si>
-  <si>
-    <t>？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日本使用</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Todaylate  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抓拍数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remarks  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>stutas  TEXT,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加班分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -724,7 +731,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保留</t>
+    <t>早退分钟</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1057,13 +1064,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="50.375" customWidth="1"/>
+    <col min="1" max="1" width="49.625" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1072,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
@@ -1080,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1088,7 +1095,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
@@ -1096,7 +1103,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1104,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
@@ -1112,15 +1119,15 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
@@ -1128,7 +1135,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
@@ -1136,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
@@ -1144,7 +1151,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
@@ -1152,7 +1159,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
@@ -1160,7 +1167,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
@@ -1168,97 +1175,97 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>191</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" t="s">
         <v>187</v>
-      </c>
-      <c r="B22" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -1289,10 +1296,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
@@ -1300,28 +1307,28 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1351,167 +1358,167 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
     </row>
   </sheetData>
@@ -1544,108 +1551,108 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1659,12 +1666,13 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
@@ -1677,68 +1685,68 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -1769,55 +1777,55 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -1847,95 +1855,95 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B7" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1948,14 +1956,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="52.25" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.875" customWidth="1"/>
     <col min="3" max="3" width="31.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1966,26 +1974,26 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
@@ -1993,135 +2001,135 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B23" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
